--- a/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd_rejected.xlsx
+++ b/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd_rejected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,6 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>reject</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>H0</t>
         </is>
       </c>
@@ -483,35 +478,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>0.5v</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>18v</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.005579215170920776</v>
+        <v>0.01754990930677841</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1255477466277006</v>
+        <v>0.001247209584349981</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1367061769695422</v>
+        <v>0.03385260902920684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1866888790278887</v>
+        <v>4.723470142111323</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0.02379130724204015</v>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -525,30 +515,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>18v</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0840387417516236</v>
+        <v>0.01754990930677841</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04672652711940409</v>
+        <v>0.00123683516945973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2148040106226513</v>
+        <v>0.03386298344409709</v>
       </c>
       <c r="F3" t="n">
-        <v>2.819839995471239</v>
+        <v>4.720466217862374</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5407715146996628</v>
+        <v>0.02395482209035593</v>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -562,30 +547,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08961795692254437</v>
+        <v>0.01870862978179839</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03540025638302646</v>
+        <v>0.004804548390456775</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2146361702281152</v>
+        <v>0.03261271117314001</v>
       </c>
       <c r="F4" t="n">
-        <v>3.145278358189987</v>
+        <v>5.903988555535277</v>
       </c>
       <c r="G4" t="n">
-        <v>0.392203504601127</v>
+        <v>0.001005322592465663</v>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -594,35 +574,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24.5v</t>
+          <t>18v</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.108612505629143</v>
+        <v>0.01407768708455626</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01593268103532554</v>
+        <v>0.0002240114764534996</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2331576922936115</v>
+        <v>0.02793136269265901</v>
       </c>
       <c r="F5" t="n">
-        <v>3.826398702892194</v>
+        <v>4.458739717283347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1455977460829941</v>
+        <v>0.04305586947443718</v>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -631,7 +606,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -640,26 +615,21 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.007366666666665855</v>
+        <v>0.01925445476132383</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1170226004512422</v>
+        <v>0.005334826344308272</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1317559337845739</v>
+        <v>0.0331740831783394</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2598516301848472</v>
+        <v>6.069451010385574</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -677,26 +647,21 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.07741839193508621</v>
+        <v>0.01930807137229723</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04709570137290553</v>
+        <v>0.005660638378136242</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2019324852430779</v>
+        <v>0.03295550436645823</v>
       </c>
       <c r="F7" t="n">
-        <v>2.728116872975132</v>
+        <v>6.207743333265988</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5801159011506716</v>
+        <v>0.001</v>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -714,26 +679,53 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.08478505860175206</v>
+        <v>0.02696767826187999</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03972903470623967</v>
+        <v>0.01348400786991225</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2092991519097438</v>
+        <v>0.04045134865384774</v>
       </c>
       <c r="F8" t="n">
-        <v>2.98770800020709</v>
+        <v>8.775689685661026</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4668614470411014</v>
+        <v>0.001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02153969241574086</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.008052603749639412</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03502678108184232</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.007564632617195</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd_rejected.xlsx
+++ b/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd_rejected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,23 +483,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>3v</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01754990930677841</v>
+        <v>0.5547905909351704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001247209584349981</v>
+        <v>0.5250135446218048</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03385260902920684</v>
+        <v>0.5845676372485359</v>
       </c>
       <c r="F2" t="n">
-        <v>4.723470142111323</v>
+        <v>81.74969316723494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02379130724204015</v>
+        <v>0.001</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>0.5v</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,19 +519,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01754990930677841</v>
+        <v>0.09827777777778073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00123683516945973</v>
+        <v>0.07159928421353862</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03386298344409709</v>
+        <v>0.1249562713420228</v>
       </c>
       <c r="F3" t="n">
-        <v>4.720466217862374</v>
+        <v>16.16339869457496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02395482209035593</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -542,28 +542,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>0.5v</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24.5v</t>
+          <t>21v</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01870862978179839</v>
+        <v>0.1059523809523822</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004804548390456775</v>
+        <v>0.0792738873881401</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03261271117314001</v>
+        <v>0.1326308745166243</v>
       </c>
       <c r="F4" t="n">
-        <v>5.903988555535277</v>
+        <v>17.42561354862084</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001005322592465663</v>
+        <v>0.001</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -574,28 +574,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>0.5v</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01407768708455626</v>
+        <v>0.07110204081632582</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002240114764534996</v>
+        <v>0.04442354725208371</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02793136269265901</v>
+        <v>0.09778053438056793</v>
       </c>
       <c r="F5" t="n">
-        <v>4.458739717283347</v>
+        <v>11.69390130402446</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04305586947443718</v>
+        <v>0.001</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -606,25 +606,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>3v</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01925445476132383</v>
+        <v>0.5364792989717934</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005334826344308272</v>
+        <v>0.5107061589429918</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0331740831783394</v>
+        <v>0.562252439000595</v>
       </c>
       <c r="F6" t="n">
-        <v>6.069451010385574</v>
+        <v>91.3322792732201</v>
       </c>
       <c r="G6" t="n">
         <v>0.001</v>
@@ -638,25 +638,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>3v</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.5v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01930807137229723</v>
+        <v>0.5396696231932351</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005660638378136242</v>
+        <v>0.5139399515938827</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03295550436645823</v>
+        <v>0.5653992947925874</v>
       </c>
       <c r="F7" t="n">
-        <v>6.207743333265988</v>
+        <v>92.03062912083485</v>
       </c>
       <c r="G7" t="n">
         <v>0.001</v>
@@ -670,25 +670,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>3v</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24.5v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02696767826187999</v>
+        <v>0.5524502365386476</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01348400786991225</v>
+        <v>0.5267444061199772</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04045134865384774</v>
+        <v>0.5781560669573179</v>
       </c>
       <c r="F8" t="n">
-        <v>8.775689685661026</v>
+        <v>94.29750161967509</v>
       </c>
       <c r="G8" t="n">
         <v>0.001</v>
@@ -702,30 +702,638 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>3v</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5668387837062545</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5411282024377084</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5925493649748006</v>
+      </c>
+      <c r="F9" t="n">
+        <v>96.73559847418635</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3v</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4565128131573896</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4308211835124244</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4822044428023548</v>
+      </c>
+      <c r="F10" t="n">
+        <v>77.9650531778245</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3v</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>21v</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C11" t="n">
+        <v>0.4488382099827881</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4231465803378229</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4745298396277533</v>
+      </c>
+      <c r="F11" t="n">
+        <v>76.65435427216154</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3v</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>24.5v</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0.02153969241574086</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.008052603749639412</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.03502678108184232</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.007564632617195</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0.4836885501188445</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4579969204738794</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5093801797638098</v>
+      </c>
+      <c r="F12" t="n">
+        <v>82.60623238743396</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6v</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03035948473446113</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.008216801202295086</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.05250216826662717</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.015930412417551</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6v</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.07996648581440371</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.05784581044828523</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1020871611805222</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15.86164733021868</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6v</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0876410889890052</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.06552041362288671</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1097617643551237</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17.38393316928175</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6v</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05279074885294881</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03067007348683031</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0749114242190673</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10.47123969592766</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>9v</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02716916051301939</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.005077087552974133</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.04926123347306464</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.396080394390007</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.004336209593780893</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9v</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.08315681003584546</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.06108679571053278</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1052268243611581</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.5323224302447</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>9v</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09083141321044694</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.06876139888513426</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1129014275357596</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18.05810262974969</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>9v</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05598107307439055</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03391105874907788</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07805108739970322</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11.12954128059952</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.09593742338125794</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.07389520821983586</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.11797963854268</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19.09727815295572</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1036120265558594</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.08156981139443734</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1256542417172815</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20.62498263336971</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.06876168641980303</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.04671947125838095</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.09080390158122512</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13.68768313285587</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1103259705488648</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.08827821508769604</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1323737260100336</v>
+      </c>
+      <c r="F24" t="n">
+        <v>21.95593993637574</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1180005737234663</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.09595281826229753</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1400483291846351</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23.48326052552421</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.08315023358740993</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.06110247812624113</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1051979890485787</v>
+      </c>
+      <c r="F26" t="n">
+        <v>16.54770427360241</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.02717573696145491</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.005150084518836032</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.04920138940407379</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.413662895110165</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.004131024771766301</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0348503401360564</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01282468769343752</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.05687599257867527</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.94251616963091</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd_rejected.xlsx
+++ b/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd_rejected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,27 +483,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5547905909351704</v>
+        <v>0.01831129196337701</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5250135446218048</v>
+        <v>-0.008445705850044921</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5845676372485359</v>
+        <v>0.04506828977679894</v>
       </c>
       <c r="F2" t="n">
-        <v>81.74969316723494</v>
+        <v>3.002757530800678</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>0.459844638217055</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -515,27 +515,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09827777777778073</v>
+        <v>0.01512096774193527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07159928421353862</v>
+        <v>-0.01159416253387981</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1249562713420228</v>
+        <v>0.04183609801775034</v>
       </c>
       <c r="F3" t="n">
-        <v>16.16339869457496</v>
+        <v>2.483481626266732</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001</v>
+        <v>0.6850479383718692</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -547,27 +547,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1059523809523822</v>
+        <v>0.002340354396522791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0792738873881401</v>
+        <v>-0.02435181491503168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1326308745166243</v>
+        <v>0.02903252370807726</v>
       </c>
       <c r="F4" t="n">
-        <v>17.42561354862084</v>
+        <v>0.3847126055834243</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -579,98 +579,98 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24.5v</t>
+          <t>15v</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07110204081632582</v>
+        <v>0.01204819277108412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04442354725208371</v>
+        <v>-0.01464855186585174</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09778053438056793</v>
+        <v>0.03874493740801997</v>
       </c>
       <c r="F5" t="n">
-        <v>11.69390130402446</v>
+        <v>1.980169017112511</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5364792989717934</v>
+        <v>0.003190324221441741</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5107061589429918</v>
+        <v>-0.01897452284434387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.562252439000595</v>
+        <v>0.02535517128722736</v>
       </c>
       <c r="F6" t="n">
-        <v>91.3322792732201</v>
+        <v>0.631551458984317</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5396696231932351</v>
+        <v>0.01597093756685422</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5139399515938827</v>
+        <v>-0.006166229423358961</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5653992947925874</v>
+        <v>0.0381081045570674</v>
       </c>
       <c r="F7" t="n">
-        <v>92.03062912083485</v>
+        <v>3.165534357324425</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001</v>
+        <v>0.3826333963010845</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -679,30 +679,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5524502365386476</v>
+        <v>0.01278061334541248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5267444061199772</v>
+        <v>-0.009305930431713207</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5781560669573179</v>
+        <v>0.03486715712253817</v>
       </c>
       <c r="F8" t="n">
-        <v>94.29750161967509</v>
+        <v>2.53899939006594</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001</v>
+        <v>0.6612326889893446</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -711,631 +711,55 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5668387837062545</v>
+        <v>0.01438854716760691</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5411282024377084</v>
+        <v>-0.007675754420589386</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5925493649748006</v>
+        <v>0.03645284875580319</v>
       </c>
       <c r="F9" t="n">
-        <v>96.73559847418635</v>
+        <v>2.861313345450331</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001</v>
+        <v>0.522980241264126</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>18v</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>21v</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4565128131573896</v>
+        <v>0.007674603174601488</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4308211835124244</v>
+        <v>-0.01435104926801739</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4822044428023548</v>
+        <v>0.02970025561722036</v>
       </c>
       <c r="F10" t="n">
-        <v>77.9650531778245</v>
+        <v>1.528853274520744</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3v</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>21v</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4488382099827881</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.4231465803378229</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4745298396277533</v>
-      </c>
-      <c r="F11" t="n">
-        <v>76.65435427216154</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3v</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>24.5v</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4836885501188445</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.4579969204738794</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5093801797638098</v>
-      </c>
-      <c r="F12" t="n">
-        <v>82.60623238743396</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6v</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>15v</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03035948473446113</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.008216801202295086</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.05250216826662717</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.015930412417551</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6v</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>18v</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07996648581440371</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.05784581044828523</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1020871611805222</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15.86164733021868</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6v</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>21v</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0876410889890052</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.06552041362288671</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1097617643551237</v>
-      </c>
-      <c r="F15" t="n">
-        <v>17.38393316928175</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6v</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>24.5v</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05279074885294881</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.03067007348683031</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0749114242190673</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10.47123969592766</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>9v</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>15v</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02716916051301939</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.005077087552974133</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.04926123347306464</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5.396080394390007</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.004336209593780893</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>9v</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>18v</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.08315681003584546</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.06108679571053278</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1052268243611581</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16.5323224302447</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>9v</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>21v</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.09083141321044694</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.06876139888513426</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1129014275357596</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18.05810262974969</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>9v</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>24.5v</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05598107307439055</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.03391105874907788</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.07805108739970322</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11.12954128059952</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>12v</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>18v</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.09593742338125794</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.07389520821983586</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.11797963854268</v>
-      </c>
-      <c r="F21" t="n">
-        <v>19.09727815295572</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>12v</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>21v</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1036120265558594</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.08156981139443734</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1256542417172815</v>
-      </c>
-      <c r="F22" t="n">
-        <v>20.62498263336971</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>12v</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>24.5v</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.06876168641980303</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.04671947125838095</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.09080390158122512</v>
-      </c>
-      <c r="F23" t="n">
-        <v>13.68768313285587</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>15v</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>18v</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1103259705488648</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.08827821508769604</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1323737260100336</v>
-      </c>
-      <c r="F24" t="n">
-        <v>21.95593993637574</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>15v</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>21v</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1180005737234663</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.09595281826229753</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1400483291846351</v>
-      </c>
-      <c r="F25" t="n">
-        <v>23.48326052552421</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>15v</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>24.5v</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.08315023358740993</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.06110247812624113</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1051979890485787</v>
-      </c>
-      <c r="F26" t="n">
-        <v>16.54770427360241</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>18v</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>24.5v</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.02717573696145491</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.005150084518836032</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.04920138940407379</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5.413662895110165</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.004131024771766301</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>21v</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>24.5v</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0348503401360564</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.01282468769343752</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.05687599257867527</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6.94251616963091</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>False</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
